--- a/20春_Web数据挖掘_week02_nfu_文学与传媒学院.xlsx
+++ b/20春_Web数据挖掘_week02_nfu_文学与传媒学院.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>学历</t>
   </si>
@@ -31,208 +31,196 @@
     <t>本科及以上</t>
   </si>
   <si>
+    <t>硕士及以上</t>
+  </si>
+  <si>
     <t>大专及以上</t>
   </si>
   <si>
-    <t>硕士及以上</t>
-  </si>
-  <si>
     <t>学历不限</t>
   </si>
   <si>
-    <t>上海铁林投资控股有限责任公司</t>
-  </si>
-  <si>
-    <t>大圣科技股份有限公司</t>
-  </si>
-  <si>
-    <t>深信服科技</t>
-  </si>
-  <si>
-    <t>杭州王道控股有限公司</t>
-  </si>
-  <si>
-    <t>北京保利票务发展有限公司</t>
-  </si>
-  <si>
-    <t>泰康人寿保险有限责任公司</t>
-  </si>
-  <si>
-    <t>优信集团</t>
-  </si>
-  <si>
-    <t>驻云科技</t>
-  </si>
-  <si>
-    <t>科立讯通信</t>
+    <t>讯鸟软件</t>
+  </si>
+  <si>
+    <t>好屋</t>
+  </si>
+  <si>
+    <t>武汉中帜生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>宜信公司</t>
+  </si>
+  <si>
+    <t>世达工具(上海)有限公司</t>
+  </si>
+  <si>
+    <t>余姚市利佛德汽车零部件有限公司</t>
+  </si>
+  <si>
+    <t>长久实业</t>
+  </si>
+  <si>
+    <t>上海隆长信息技术有限公司</t>
+  </si>
+  <si>
+    <t>寶嬉科技有限公司</t>
+  </si>
+  <si>
+    <t>汤臣倍健药业有限公司</t>
+  </si>
+  <si>
+    <t>万豪地产</t>
+  </si>
+  <si>
+    <t>云南腾俊国际物流有限公司</t>
+  </si>
+  <si>
+    <t>佛山顺德国通物流城有限公司</t>
+  </si>
+  <si>
+    <t>太平洋电信</t>
+  </si>
+  <si>
+    <t>深圳市今古科技有限公司</t>
+  </si>
+  <si>
+    <t>上海丙晟科技有限公司</t>
+  </si>
+  <si>
+    <t>杭州凡声科技有限公司</t>
+  </si>
+  <si>
+    <t>上海晗众信息科技有限公司</t>
+  </si>
+  <si>
+    <t>云势天下(北京)软件有限公司</t>
+  </si>
+  <si>
+    <t>厦门立林集团有限公司</t>
+  </si>
+  <si>
+    <t>上海智能交通有限公司</t>
+  </si>
+  <si>
+    <t>天翼智慧</t>
+  </si>
+  <si>
+    <t>融创服务集团</t>
+  </si>
+  <si>
+    <t>深圳市万邑通信息科技有限公司</t>
+  </si>
+  <si>
+    <t>重庆平创半导体研究院有限责任公司</t>
+  </si>
+  <si>
+    <t>新东方教育科技集团有限公司</t>
+  </si>
+  <si>
+    <t>MDC Telecom</t>
+  </si>
+  <si>
+    <t>OPPO广东移动通信有限公司</t>
+  </si>
+  <si>
+    <t>深圳市新蕾电子有限公司</t>
+  </si>
+  <si>
+    <t>乐元素</t>
+  </si>
+  <si>
+    <t>福历科技(上海)有限公司</t>
   </si>
   <si>
     <t>深圳爱米基因科技有限责任公司</t>
   </si>
   <si>
-    <t>海南名赫环保产业发展有限公司</t>
-  </si>
-  <si>
-    <t>峰米(北京)科技有限公司</t>
-  </si>
-  <si>
-    <t>载信软件</t>
-  </si>
-  <si>
-    <t>广发银行股份有限公司天津分行</t>
-  </si>
-  <si>
-    <t>宜信公司</t>
-  </si>
-  <si>
-    <t>深圳市水泽田科技有限公司</t>
-  </si>
-  <si>
-    <t>羽乐创新科技</t>
-  </si>
-  <si>
-    <t>字节跳动</t>
-  </si>
-  <si>
-    <t>医药魔方</t>
-  </si>
-  <si>
-    <t>微景天下(北京)科技有限公司</t>
-  </si>
-  <si>
-    <t>海南思行科技有限公司</t>
-  </si>
-  <si>
-    <t>周六福珠宝股份有限公司</t>
-  </si>
-  <si>
-    <t>牛津(海南)区块链研究院有限公司</t>
-  </si>
-  <si>
-    <t>航天新商务信息科技有限公司</t>
-  </si>
-  <si>
-    <t>恒昌利通投资管理</t>
-  </si>
-  <si>
-    <t>山东万腾电子科技有限公司</t>
-  </si>
-  <si>
-    <t>恒天财富</t>
-  </si>
-  <si>
-    <t>新城控股集团总部</t>
-  </si>
-  <si>
-    <t>交银康联人寿保险有限公司苏州市中心支公司</t>
-  </si>
-  <si>
-    <t>上海互盾信息科技有限公司宝山第一分公司</t>
-  </si>
-  <si>
-    <t>马蜂窝</t>
-  </si>
-  <si>
-    <t>小川科技</t>
-  </si>
-  <si>
-    <t>友达光电(苏州)有限公司</t>
-  </si>
-  <si>
-    <t>云南腾晋物流股份有限公司</t>
-  </si>
-  <si>
-    <t>BUYDEEM北鼎科技</t>
-  </si>
-  <si>
-    <t>摩伽科技</t>
-  </si>
-  <si>
-    <t>广州西麦科技股份有限公司</t>
-  </si>
-  <si>
-    <t>上海一汐网络科技有限公司</t>
+    <t>华锐金融技术</t>
+  </si>
+  <si>
+    <t>浙江陀曼精密机械有限公司</t>
+  </si>
+  <si>
+    <t>诺普信</t>
+  </si>
+  <si>
+    <t>深圳市加满分科技有限公司</t>
+  </si>
+  <si>
+    <t>北京数见科技有限公司</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>面议</t>
+  </si>
+  <si>
+    <t>8-13k·14薪</t>
+  </si>
+  <si>
+    <t>30-50k·12薪</t>
+  </si>
+  <si>
+    <t>10-15k·12薪</t>
+  </si>
+  <si>
+    <t>17-23k·12薪</t>
+  </si>
+  <si>
+    <t>23-28k·13薪</t>
+  </si>
+  <si>
+    <t>15-35k·13薪</t>
   </si>
   <si>
     <t>15-30k·12薪</t>
   </si>
   <si>
-    <t>12-20k·12薪</t>
-  </si>
-  <si>
-    <t>15-25k·14薪</t>
+    <t>23-30k·12薪</t>
+  </si>
+  <si>
+    <t>15-20k·12薪</t>
+  </si>
+  <si>
+    <t>20-30k·12薪</t>
+  </si>
+  <si>
+    <t>10-14k·12薪</t>
+  </si>
+  <si>
+    <t>20-25k·12薪</t>
+  </si>
+  <si>
+    <t>15-25k·13薪</t>
+  </si>
+  <si>
+    <t>15-20k·14薪</t>
+  </si>
+  <si>
+    <t>12-18k·12薪</t>
+  </si>
+  <si>
+    <t>8-15k·12薪</t>
+  </si>
+  <si>
+    <t>16-28k·12薪</t>
+  </si>
+  <si>
+    <t>6-15k·12薪</t>
+  </si>
+  <si>
+    <t>12-24k·12薪</t>
+  </si>
+  <si>
+    <t>14-28k·12薪</t>
   </si>
   <si>
     <t>15-25k·12薪</t>
   </si>
   <si>
-    <t>面议</t>
-  </si>
-  <si>
     <t>10-20k·12薪</t>
-  </si>
-  <si>
-    <t>12-15k·14薪</t>
-  </si>
-  <si>
-    <t>20-25k·12薪</t>
-  </si>
-  <si>
-    <t>15-20k·12薪</t>
-  </si>
-  <si>
-    <t>20-30k·12薪</t>
-  </si>
-  <si>
-    <t>9-15k·14薪</t>
-  </si>
-  <si>
-    <t>8-10k·12薪</t>
-  </si>
-  <si>
-    <t>30-50k·12薪</t>
-  </si>
-  <si>
-    <t>10-15k·12薪</t>
-  </si>
-  <si>
-    <t>25-40k·12薪</t>
-  </si>
-  <si>
-    <t>8-12k·12薪</t>
-  </si>
-  <si>
-    <t>12-18k·12薪</t>
-  </si>
-  <si>
-    <t>18-30k·18薪</t>
-  </si>
-  <si>
-    <t>8-14k·12薪</t>
-  </si>
-  <si>
-    <t>20-30k·15薪</t>
-  </si>
-  <si>
-    <t>30-60k·15薪</t>
-  </si>
-  <si>
-    <t>6-8k·13薪</t>
-  </si>
-  <si>
-    <t>10-18k·14薪</t>
-  </si>
-  <si>
-    <t>9-13k·12薪</t>
-  </si>
-  <si>
-    <t>15-18k·12薪</t>
-  </si>
-  <si>
-    <t>11-17k·12薪</t>
-  </si>
-  <si>
-    <t>13-23k·12薪</t>
   </si>
 </sst>
 </file>
@@ -626,13 +614,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -640,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -654,13 +642,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -674,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -682,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -696,13 +684,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -713,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -724,13 +712,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -741,10 +729,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -755,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -769,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -780,13 +768,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -794,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -811,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -822,13 +810,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -836,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -853,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -867,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -881,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -892,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
@@ -906,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -920,13 +908,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -934,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -948,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -962,10 +950,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>62</v>
@@ -979,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -990,10 +978,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -1004,10 +992,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
@@ -1018,13 +1006,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1032,13 +1020,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1046,13 +1034,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1060,13 +1048,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1077,10 +1065,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1091,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1102,13 +1090,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1116,13 +1104,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1130,13 +1118,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1144,13 +1132,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1158,13 +1146,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
